--- a/BIS232_CONDITION_VALIDATION/input_data/datapool/Copy of Steel_Condition_78.xlsx
+++ b/BIS232_CONDITION_VALIDATION/input_data/datapool/Copy of Steel_Condition_78.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouloud Hamdidouche\Desktop\eclipse\SeleniumProjects\BIS232_CONDITION_VALIDATION\input_data\datapool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA15A077-2302-4C5E-9BA7-C22E46EADAF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167FE86-C2C4-48F2-B765-71E86C6E0011}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,16 +211,7 @@
     <t>{"Pass":[{"ConditionID":"2"},{"ConditionID":"130"}],"Failed":[{"ConditionID":"4","Reason":"The minimum width must be 600 mm or more"},{"ConditionID":"129","Reason":"The minimum width must be greater than 150mm, and the minimum width must be greater than or equal to 2* the maximum thickness."},{"ConditionID":"22","Reason":"the minimum percent nickel must be equal to or greater than 24."},{"ConditionID":"78","Reason":"The minimum thickness must be equal to or greater than 4.75 mm and the maximum thickness must be less or equal than 10 mm."}]}</t>
   </si>
   <si>
-    <t>1111111111</t>
-  </si>
-  <si>
-    <t>1111111112</t>
-  </si>
-  <si>
     <t>1111111113</t>
-  </si>
-  <si>
-    <t>1111111110</t>
   </si>
   <si>
     <t>{
@@ -229,7 +220,674 @@
     "ExpirationDate": "4/30/2022"
   },
   "Product": "Steel",
-  "HTSUSCode": "1111111110",
+  "HTSUSCode": "1111111113",
+  "PreviouslyGrantedER": null,
+  "MetalClass": "Carbon and Alloy Long",
+  "RequestingOrg": {
+    "OrgLegalName": "PROD Attachment Upload Tests 181",
+    "StreetAddress": "2420 pimmit 1",
+    "City": "Falls church 186",
+    "State": "Utah",
+    "ZipCode": "22229",
+    "HeadquartersCountry": "United States",
+    "POCName": "POCTest 186",
+    "PhoneNumber": "5712259455",
+    "EmailAddress": "cbp_conditions1@gmail.com 186",
+    "WebsiteAddress": "https://adad@domain.com 190"
+  },
+  "RequestingImporter": {
+    "OrgLegalName": "MH 190",
+    "StreetAddress": "m street 186",
+    "City": "georgeTown 186",
+    "State": "Washington",
+    "ZipCode": "22229",
+    "HeadquartersCountry": "United States",
+    "POCName": "POCTest188",
+    "PhoneNumber": "5712259433",
+    "EmailAddress": "Test@gmail.com185",
+    "WebsiteAddress": "https://test@domain.com"
+  },
+  "RequestingParent": {
+    "OrgLegalName": null,
+    "StreetAddress": null,
+    "City": null,
+    "State": null,
+    "ZipCode": null,
+    "HeadquartersCountry": null,
+    "WebsiteAddress": null
+  },
+  "RequestingAuthRep": {
+    "POCName": null,
+    "POCOrganization": null,
+    "CountryLocation": null,
+    "PhoneNumber": "5712259845",
+    "EmailAddress": "test@gmail.com 178",
+    "WebsiteAddress": "https://uplod.com178",
+    "OtherInformation": null
+  },
+  "OwnershipActivity": {
+    "Ownership": "Yes",
+    "Activity": "Importer",
+    "Organization": "sdsd 181",
+    "HeadquartersCountry": "Benin",
+    "Comments": null
+  },
+  "ExclusionRequesterActivity": "Please Select",
+  "TotalRequestedAnnualExclusionQuantity": "232",
+  "ExclusionRequesterComments": null,
+  "ExclusionExplanation": {
+    "AvgAnnualConsumption": "221",
+    "Explanation": "National Security Requirement",
+    "Comments": null,
+    "PercentageNotAvailable": "83",
+    "DeliveryEstimate": "53",
+    "ManufactureEstimate": "210",
+    "ShipmentDaysEstimate": "180",
+    "ShipmentQtyEstimate": "182"
+  },
+  "Ports": [],
+  "NonUSProducer": {
+    "BehalfOf": "Yes",
+    "ProducerName": "USPNAME177",
+    "HeadquartersCountry": "Colombia",
+    "Comments": null
+  },
+  "ProductDescription": {
+    "Description": "descriotion test 176",
+    "Comments": null
+  },
+  "ProductStandards": [
+    {
+      "Organization": "ASTM",
+      "Designation": "A358"
+    }
+  ],
+  "ProductClassification": [
+    {
+      "Key": "Slab",
+      "Value": false
+    },
+    {
+      "Key": "Blooms",
+      "Value": false
+    },
+    {
+      "Key": "Billets",
+      "Value": false
+    },
+    {
+      "Key": "Ingots",
+      "Value": false
+    },
+    {
+      "Key": "Flat",
+      "Value": false
+    },
+    {
+      "Key": "Long",
+      "Value": false
+    },
+    {
+      "Key": "Beams",
+      "Value": false
+    },
+    {
+      "Key": "Semi-Finished",
+      "Value": false
+    },
+    {
+      "Key": "Pipe",
+      "Value": false
+    },
+    {
+      "Key": "Tube",
+      "Value": false
+    },
+    {
+      "Key": "Stainless",
+      "Value": false
+    },
+    {
+      "Key": "Wire",
+      "Value": false
+    },
+    {
+      "Key": "Hot Rolled",
+      "Value": false
+    },
+    {
+      "Key": "Cold Rolled",
+      "Value": false
+    },
+    {
+      "Key": "Annealed",
+      "Value": false
+    },
+    {
+      "Key": "Plated",
+      "Value": false
+    },
+    {
+      "Key": "Electro-Plated",
+      "Value": false
+    },
+    {
+      "Key": "Galvanized",
+      "Value": false
+    },
+    {
+      "Key": "Electro-Galvanized",
+      "Value": false
+    },
+    {
+      "Key": "Zinc Plated",
+      "Value": false
+    },
+    {
+      "Key": "Aluminum Plated",
+      "Value": false
+    },
+    {
+      "Key": "Lead Plated",
+      "Value": false
+    },
+    {
+      "Key": "Tin Plated",
+      "Value": false
+    },
+    {
+      "Key": "Painted",
+      "Value": false
+    },
+    {
+      "Key": "Varnished",
+      "Value": false
+    },
+    {
+      "Key": "Plasticized",
+      "Value": false
+    },
+    {
+      "Key": "Pickled",
+      "Value": false
+    },
+    {
+      "Key": "Fittings",
+      "Value": false
+    },
+    {
+      "Key": null,
+      "Value": true
+    },
+    {
+      "Key": null,
+      "Value": true
+    },
+    {
+      "Key": null,
+      "Value": true
+    }
+  ],
+  "ProductClassificationComments": null,
+  "ChemicalComposition": [
+    {
+      "Key": "Aluminum",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.0005"
+      }
+    },
+    {
+      "Key": "Antimony",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.0005"
+      }
+    },
+    {
+      "Key": "Bismuth",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.0005"
+      }
+    },
+    {
+      "Key": "Boron",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Carbon",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "1.1"
+      }
+    },
+    {
+      "Key": "Chromium",
+      "Value": {
+        "Minimum": "12",
+        "Maximum": "1"
+      }
+    },
+    {
+      "Key": "Cobalt",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Copper",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Iron",
+      "Value": {
+        "Minimum": "0.0",
+        "Maximum": "0.0"
+      }
+    },
+    {
+      "Key": "Lead",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Magnesium",
+      "Value": {
+        "Minimum": "0.0001",
+        "Maximum": "0.0005"
+      }
+    },
+    {
+      "Key": "Manganese",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Molybdenum",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Nickel",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Niobium",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Nitrogen",
+      "Value": {
+        "Minimum": "0.00",
+        "Maximum": "0.00004"
+      }
+    },
+    {
+      "Key": "Phosphorus",
+      "Value": {
+        "Minimum": "0.001",
+        "Maximum": "0.0004"
+      }
+    },
+    {
+      "Key": "Selenium",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Silicon",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Sulfur",
+      "Value": {
+        "Minimum": "1",
+        "Maximum": "0.03"
+      }
+    },
+    {
+      "Key": "Tellurium",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Tin",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Titanium",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Tungsten",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Vanadium",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00016"
+      }
+    },
+    {
+      "Key": "Zinc",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00005"
+      }
+    },
+    {
+      "Key": "Zirconium",
+      "Value": {
+        "Minimum": "0.002",
+        "Maximum": "0.00008"
+      }
+    },
+    {
+      "Key": null,
+      "Value": {
+        "Minimum": "0.00",
+        "Maximum": "0.011"
+      }
+    }
+  ],
+  "ChemicalCompositionComments": null,
+  "ProductDimensions": [
+    {
+      "Key": "Thickness",
+      "Value": {
+        "Minimum": "3",
+        "Maximum": "4"
+      }
+    },
+    {
+      "Key": "InsideDiameter",
+      "Value": {
+        "Minimum": "0.0001",
+        "Maximum": "0.00008"
+      }
+    },
+    {
+      "Key": "OutsideDiameter",
+      "Value": {
+        "Minimum": "0.0001",
+        "Maximum": "0.00004"
+      }
+    },
+    {
+      "Key": "Length",
+      "Value": {
+        "Minimum": "0.0001",
+        "Maximum": "0.00004"
+      }
+    },
+    {
+      "Key": "Width",
+      "Value": {
+        "Minimum": "2",
+        "Maximum": "3"
+      }
+    },
+    {
+      "Key": "Height",
+      "Value": {
+        "Minimum": "10",
+        "Maximum": "80.8"
+      }
+    }
+  ],
+  "ProductStrength": [
+    {
+      "Key": "TensileStrength",
+      "Value": {
+        "Minimum": "0.00",
+        "Maximum": "0.19"
+      }
+    },
+    {
+      "Key": "YieldStrength",
+      "Value": {
+        "Minimum": "400",
+        "Maximum": "261"
+      }
+    },
+    {
+      "Key": null,
+      "Value": {
+        "Minimum": "0.00",
+        "Maximum": "0.19"
+      }
+    }
+  ],
+  "ToughnessTemperature": [
+    {
+      "Key": "DropWeightTearTesting",
+      "Value": null
+    },
+    {
+      "Key": "ImpactCharpyTesting",
+      "Value": null
+    },
+    {
+      "Key": null,
+      "Value": null
+    }
+  ],
+  "ToughnessJoules": [
+    {
+      "Key": "DropWeightTearTesting",
+      "Value": null
+    },
+    {
+      "Key": "ImpactCharpyTesting",
+      "Value": null
+    },
+    {
+      "Key": null,
+      "Value": null
+    }
+  ],
+  "ToughnessShear": [
+    {
+      "Key": "DropWeightTearTesting",
+      "Value": null
+    },
+    {
+      "Key": "ImpactCharpyTesting",
+      "Value": null
+    },
+    {
+      "Key": null,
+      "Value": null
+    }
+  ],
+  "ProductProcessing": {
+    "Processes": [
+      {
+        "Key": "Bendability",
+        "Value": {
+          "Minimum": "0.00",
+          "Maximum": "0.47"
+        }
+      },
+      {
+        "Key": "EpsteinTest",
+        "Value": {
+          "Minimum": "0.00",
+          "Maximum": "0.47"
+        }
+      },
+      {
+        "Key": "GreerLab",
+        "Value": {
+          "Minimum": "0.00",
+          "Maximum": "0.47"
+        }
+      },
+      {
+        "Key": "StackedWideSheet",
+        "Value": {
+          "Minimum": "0.00",
+          "Maximum": "0.47"
+        }
+      },
+      {
+        "Key": "ProfiloMeter",
+        "Value": {
+          "Minimum": "0.00",
+          "Maximum": "0.19"
+        }
+      }
+    ],
+    "ProcessesPercentage": [
+      {
+        "Key": "Elongation",
+        "Value": {
+          "Minimum": "0.00",
+          "Maximum": "0.19"
+        }
+      },
+      {
+        "Key": "ReductionInArea",
+        "Value": {
+          "Minimum": "0.00",
+          "Maximum": "0.19"
+        }
+      },
+      {
+        "Key": "HoleExpansion",
+        "Value": {
+          "Minimum": "0.00",
+          "Maximum": "0.47"
+        }
+      }
+    ],
+    "Coating": {
+      "CoatingMethod": null,
+      "CoatingProduct": null,
+      "CoatingComposition": null,
+      "CoatingWeight": {
+        "Minimum": "0",
+        "Maximum": "0"
+      },
+      "CoatingThickness": {
+        "Minimum": "0",
+        "Maximum": "0"
+      }
+    },
+    "AdditionalMethodsUsed": [
+      null,
+      null,
+      null
+    ],
+    "Comments": null
+  },
+  "AdditionalDetails": {
+    "CommercialNames": [],
+    "Comments": null,
+    "AssociationCode": null,
+    "ApplicationSuitability": "test 177",
+    "NationalSecurity": null
+  },
+  "SourceCountries": [
+    {
+      "OriginCountry": "Vietnam",
+      "ExportCountry": "Liechtenstein",
+      "ExclusionQty": "241",
+      "Manufacturer": null,
+      "Supplier": null
+    }
+  ],
+  "ProductAvailability": {
+    "DomesticManufacturer": "No",
+    "ManufacturerComments": null,
+    "ExemptedCountry": "No",
+    "ExemptedComments": null,
+    "SubstituteManufacturer": "No",
+    "SubComments": null,
+    "AttemptedQualifiations": "No",
+    "QualifyAttempts": [],
+    "QualificationComments": null
+  },
+  "ProductAlternatives": {
+    "PurchaseAttempts": "No",
+    "PurchaseComments": null,
+    "Contracts": "No",
+    "ContractComments": null,
+    "NoUSManufacturer": "No",
+    "NoUSComments": null,
+    "SubstituteSteel": "No",
+    "SubstituteSteelComments": null,
+    "CBPDistinguish": "test comment 178"
+  },
+  "SubmissionCertification": {
+    "Comments": null,
+    "ProprietaryConfidential": "No",
+    "CompanyName": "Temps Inc 181",
+    "AuthOfficialName": "Aubameyang 162",
+    "AuthOfficialTitle": "IKE 178",
+    "PhoneNumber": "5716695874",
+    "AuthOfficialEmail": "hm@gmail.com 177",
+    "POCName": null,
+    "POCTitle": null,
+    "POCEmail": "poc@gmail.com 177",
+    "POCPhoneNumber": "5716695874"
+  }
+}</t>
+  </si>
+  <si>
+    <t>7211140030</t>
+  </si>
+  <si>
+    <t>7220110000</t>
+  </si>
+  <si>
+    <t>7225506000</t>
+  </si>
+  <si>
+    <t>{
+  "Form": {
+    "Number": "0694-0139",
+    "ExpirationDate": "4/30/2022"
+  },
+  "Product": "Steel",
+  "HTSUSCode": "7211140030",
   "PreviouslyGrantedER": null,
   "MetalClass": "Stainless Products",
   "RequestingOrg": {
@@ -887,7 +1545,7 @@
     "ExpirationDate": "4/30/2022"
   },
   "Product": "Steel",
-  "HTSUSCode": "1111111111",
+  "HTSUSCode": "7220110000",
   "PreviouslyGrantedER": null,
   "MetalClass": "Stainless Products",
   "RequestingOrg": {
@@ -1545,7 +2203,7 @@
     "ExpirationDate": "4/30/2022"
   },
   "Product": "Steel",
-  "HTSUSCode": "1111111112",
+  "HTSUSCode": "7225506000",
   "PreviouslyGrantedER": null,
   "MetalClass": "Carbon and Alloy Long",
   "RequestingOrg": {
@@ -2192,664 +2850,6 @@
     "POCName": null,
     "POCTitle": null,
     "POCEmail": "poc@gmail.com 176",
-    "POCPhoneNumber": "5716695874"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "Form": {
-    "Number": "0694-0139",
-    "ExpirationDate": "4/30/2022"
-  },
-  "Product": "Steel",
-  "HTSUSCode": "1111111113",
-  "PreviouslyGrantedER": null,
-  "MetalClass": "Carbon and Alloy Long",
-  "RequestingOrg": {
-    "OrgLegalName": "PROD Attachment Upload Tests 181",
-    "StreetAddress": "2420 pimmit 1",
-    "City": "Falls church 186",
-    "State": "Utah",
-    "ZipCode": "22229",
-    "HeadquartersCountry": "United States",
-    "POCName": "POCTest 186",
-    "PhoneNumber": "5712259455",
-    "EmailAddress": "cbp_conditions1@gmail.com 186",
-    "WebsiteAddress": "https://adad@domain.com 190"
-  },
-  "RequestingImporter": {
-    "OrgLegalName": "MH 190",
-    "StreetAddress": "m street 186",
-    "City": "georgeTown 186",
-    "State": "Washington",
-    "ZipCode": "22229",
-    "HeadquartersCountry": "United States",
-    "POCName": "POCTest188",
-    "PhoneNumber": "5712259433",
-    "EmailAddress": "Test@gmail.com185",
-    "WebsiteAddress": "https://test@domain.com"
-  },
-  "RequestingParent": {
-    "OrgLegalName": null,
-    "StreetAddress": null,
-    "City": null,
-    "State": null,
-    "ZipCode": null,
-    "HeadquartersCountry": null,
-    "WebsiteAddress": null
-  },
-  "RequestingAuthRep": {
-    "POCName": null,
-    "POCOrganization": null,
-    "CountryLocation": null,
-    "PhoneNumber": "5712259845",
-    "EmailAddress": "test@gmail.com 178",
-    "WebsiteAddress": "https://uplod.com178",
-    "OtherInformation": null
-  },
-  "OwnershipActivity": {
-    "Ownership": "Yes",
-    "Activity": "Importer",
-    "Organization": "sdsd 181",
-    "HeadquartersCountry": "Benin",
-    "Comments": null
-  },
-  "ExclusionRequesterActivity": "Please Select",
-  "TotalRequestedAnnualExclusionQuantity": "232",
-  "ExclusionRequesterComments": null,
-  "ExclusionExplanation": {
-    "AvgAnnualConsumption": "221",
-    "Explanation": "National Security Requirement",
-    "Comments": null,
-    "PercentageNotAvailable": "83",
-    "DeliveryEstimate": "53",
-    "ManufactureEstimate": "210",
-    "ShipmentDaysEstimate": "180",
-    "ShipmentQtyEstimate": "182"
-  },
-  "Ports": [],
-  "NonUSProducer": {
-    "BehalfOf": "Yes",
-    "ProducerName": "USPNAME177",
-    "HeadquartersCountry": "Colombia",
-    "Comments": null
-  },
-  "ProductDescription": {
-    "Description": "descriotion test 176",
-    "Comments": null
-  },
-  "ProductStandards": [
-    {
-      "Organization": "ASTM",
-      "Designation": "A358"
-    }
-  ],
-  "ProductClassification": [
-    {
-      "Key": "Slab",
-      "Value": false
-    },
-    {
-      "Key": "Blooms",
-      "Value": false
-    },
-    {
-      "Key": "Billets",
-      "Value": false
-    },
-    {
-      "Key": "Ingots",
-      "Value": false
-    },
-    {
-      "Key": "Flat",
-      "Value": false
-    },
-    {
-      "Key": "Long",
-      "Value": false
-    },
-    {
-      "Key": "Beams",
-      "Value": false
-    },
-    {
-      "Key": "Semi-Finished",
-      "Value": false
-    },
-    {
-      "Key": "Pipe",
-      "Value": false
-    },
-    {
-      "Key": "Tube",
-      "Value": false
-    },
-    {
-      "Key": "Stainless",
-      "Value": false
-    },
-    {
-      "Key": "Wire",
-      "Value": false
-    },
-    {
-      "Key": "Hot Rolled",
-      "Value": false
-    },
-    {
-      "Key": "Cold Rolled",
-      "Value": false
-    },
-    {
-      "Key": "Annealed",
-      "Value": false
-    },
-    {
-      "Key": "Plated",
-      "Value": false
-    },
-    {
-      "Key": "Electro-Plated",
-      "Value": false
-    },
-    {
-      "Key": "Galvanized",
-      "Value": false
-    },
-    {
-      "Key": "Electro-Galvanized",
-      "Value": false
-    },
-    {
-      "Key": "Zinc Plated",
-      "Value": false
-    },
-    {
-      "Key": "Aluminum Plated",
-      "Value": false
-    },
-    {
-      "Key": "Lead Plated",
-      "Value": false
-    },
-    {
-      "Key": "Tin Plated",
-      "Value": false
-    },
-    {
-      "Key": "Painted",
-      "Value": false
-    },
-    {
-      "Key": "Varnished",
-      "Value": false
-    },
-    {
-      "Key": "Plasticized",
-      "Value": false
-    },
-    {
-      "Key": "Pickled",
-      "Value": false
-    },
-    {
-      "Key": "Fittings",
-      "Value": false
-    },
-    {
-      "Key": null,
-      "Value": true
-    },
-    {
-      "Key": null,
-      "Value": true
-    },
-    {
-      "Key": null,
-      "Value": true
-    }
-  ],
-  "ProductClassificationComments": null,
-  "ChemicalComposition": [
-    {
-      "Key": "Aluminum",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.0005"
-      }
-    },
-    {
-      "Key": "Antimony",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.0005"
-      }
-    },
-    {
-      "Key": "Bismuth",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.0005"
-      }
-    },
-    {
-      "Key": "Boron",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Carbon",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "1.1"
-      }
-    },
-    {
-      "Key": "Chromium",
-      "Value": {
-        "Minimum": "12",
-        "Maximum": "1"
-      }
-    },
-    {
-      "Key": "Cobalt",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Copper",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Iron",
-      "Value": {
-        "Minimum": "0.0",
-        "Maximum": "0.0"
-      }
-    },
-    {
-      "Key": "Lead",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Magnesium",
-      "Value": {
-        "Minimum": "0.0001",
-        "Maximum": "0.0005"
-      }
-    },
-    {
-      "Key": "Manganese",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Molybdenum",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Nickel",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Niobium",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Nitrogen",
-      "Value": {
-        "Minimum": "0.00",
-        "Maximum": "0.00004"
-      }
-    },
-    {
-      "Key": "Phosphorus",
-      "Value": {
-        "Minimum": "0.001",
-        "Maximum": "0.0004"
-      }
-    },
-    {
-      "Key": "Selenium",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Silicon",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Sulfur",
-      "Value": {
-        "Minimum": "1",
-        "Maximum": "0.03"
-      }
-    },
-    {
-      "Key": "Tellurium",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Tin",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Titanium",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Tungsten",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Vanadium",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00016"
-      }
-    },
-    {
-      "Key": "Zinc",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00005"
-      }
-    },
-    {
-      "Key": "Zirconium",
-      "Value": {
-        "Minimum": "0.002",
-        "Maximum": "0.00008"
-      }
-    },
-    {
-      "Key": null,
-      "Value": {
-        "Minimum": "0.00",
-        "Maximum": "0.011"
-      }
-    }
-  ],
-  "ChemicalCompositionComments": null,
-  "ProductDimensions": [
-    {
-      "Key": "Thickness",
-      "Value": {
-        "Minimum": "3",
-        "Maximum": "4"
-      }
-    },
-    {
-      "Key": "InsideDiameter",
-      "Value": {
-        "Minimum": "0.0001",
-        "Maximum": "0.00008"
-      }
-    },
-    {
-      "Key": "OutsideDiameter",
-      "Value": {
-        "Minimum": "0.0001",
-        "Maximum": "0.00004"
-      }
-    },
-    {
-      "Key": "Length",
-      "Value": {
-        "Minimum": "0.0001",
-        "Maximum": "0.00004"
-      }
-    },
-    {
-      "Key": "Width",
-      "Value": {
-        "Minimum": "2",
-        "Maximum": "3"
-      }
-    },
-    {
-      "Key": "Height",
-      "Value": {
-        "Minimum": "10",
-        "Maximum": "80.8"
-      }
-    }
-  ],
-  "ProductStrength": [
-    {
-      "Key": "TensileStrength",
-      "Value": {
-        "Minimum": "0.00",
-        "Maximum": "0.19"
-      }
-    },
-    {
-      "Key": "YieldStrength",
-      "Value": {
-        "Minimum": "400",
-        "Maximum": "261"
-      }
-    },
-    {
-      "Key": null,
-      "Value": {
-        "Minimum": "0.00",
-        "Maximum": "0.19"
-      }
-    }
-  ],
-  "ToughnessTemperature": [
-    {
-      "Key": "DropWeightTearTesting",
-      "Value": null
-    },
-    {
-      "Key": "ImpactCharpyTesting",
-      "Value": null
-    },
-    {
-      "Key": null,
-      "Value": null
-    }
-  ],
-  "ToughnessJoules": [
-    {
-      "Key": "DropWeightTearTesting",
-      "Value": null
-    },
-    {
-      "Key": "ImpactCharpyTesting",
-      "Value": null
-    },
-    {
-      "Key": null,
-      "Value": null
-    }
-  ],
-  "ToughnessShear": [
-    {
-      "Key": "DropWeightTearTesting",
-      "Value": null
-    },
-    {
-      "Key": "ImpactCharpyTesting",
-      "Value": null
-    },
-    {
-      "Key": null,
-      "Value": null
-    }
-  ],
-  "ProductProcessing": {
-    "Processes": [
-      {
-        "Key": "Bendability",
-        "Value": {
-          "Minimum": "0.00",
-          "Maximum": "0.47"
-        }
-      },
-      {
-        "Key": "EpsteinTest",
-        "Value": {
-          "Minimum": "0.00",
-          "Maximum": "0.47"
-        }
-      },
-      {
-        "Key": "GreerLab",
-        "Value": {
-          "Minimum": "0.00",
-          "Maximum": "0.47"
-        }
-      },
-      {
-        "Key": "StackedWideSheet",
-        "Value": {
-          "Minimum": "0.00",
-          "Maximum": "0.47"
-        }
-      },
-      {
-        "Key": "ProfiloMeter",
-        "Value": {
-          "Minimum": "0.00",
-          "Maximum": "0.19"
-        }
-      }
-    ],
-    "ProcessesPercentage": [
-      {
-        "Key": "Elongation",
-        "Value": {
-          "Minimum": "0.00",
-          "Maximum": "0.19"
-        }
-      },
-      {
-        "Key": "ReductionInArea",
-        "Value": {
-          "Minimum": "0.00",
-          "Maximum": "0.19"
-        }
-      },
-      {
-        "Key": "HoleExpansion",
-        "Value": {
-          "Minimum": "0.00",
-          "Maximum": "0.47"
-        }
-      }
-    ],
-    "Coating": {
-      "CoatingMethod": null,
-      "CoatingProduct": null,
-      "CoatingComposition": null,
-      "CoatingWeight": {
-        "Minimum": "0",
-        "Maximum": "0"
-      },
-      "CoatingThickness": {
-        "Minimum": "0",
-        "Maximum": "0"
-      }
-    },
-    "AdditionalMethodsUsed": [
-      null,
-      null,
-      null
-    ],
-    "Comments": null
-  },
-  "AdditionalDetails": {
-    "CommercialNames": [],
-    "Comments": null,
-    "AssociationCode": null,
-    "ApplicationSuitability": "test 177",
-    "NationalSecurity": null
-  },
-  "SourceCountries": [
-    {
-      "OriginCountry": "Vietnam",
-      "ExportCountry": "Liechtenstein",
-      "ExclusionQty": "241",
-      "Manufacturer": null,
-      "Supplier": null
-    }
-  ],
-  "ProductAvailability": {
-    "DomesticManufacturer": "No",
-    "ManufacturerComments": null,
-    "ExemptedCountry": "No",
-    "ExemptedComments": null,
-    "SubstituteManufacturer": "No",
-    "SubComments": null,
-    "AttemptedQualifiations": "No",
-    "QualifyAttempts": [],
-    "QualificationComments": null
-  },
-  "ProductAlternatives": {
-    "PurchaseAttempts": "No",
-    "PurchaseComments": null,
-    "Contracts": "No",
-    "ContractComments": null,
-    "NoUSManufacturer": "No",
-    "NoUSComments": null,
-    "SubstituteSteel": "No",
-    "SubstituteSteelComments": null,
-    "CBPDistinguish": "test comment 178"
-  },
-  "SubmissionCertification": {
-    "Comments": null,
-    "ProprietaryConfidential": "No",
-    "CompanyName": "Temps Inc 181",
-    "AuthOfficialName": "Aubameyang 162",
-    "AuthOfficialTitle": "IKE 178",
-    "PhoneNumber": "5716695874",
-    "AuthOfficialEmail": "hm@gmail.com 177",
-    "POCName": null,
-    "POCTitle": null,
-    "POCEmail": "poc@gmail.com 177",
     "POCPhoneNumber": "5716695874"
   }
 }</t>
@@ -3852,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,7 +3972,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>27</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>30</v>
@@ -4040,7 +4040,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>27</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>30</v>
@@ -4108,7 +4108,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>27</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>30</v>
@@ -4176,7 +4176,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>30</v>
